--- a/data/PAT/PAT-JUIN-2024.xlsx
+++ b/data/PAT/PAT-JUIN-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/SOLUTIONDEV/projet_data/streamlit_test/data/PAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCC6731-F387-8C42-8569-5EECFF979FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C62A10-1E18-F647-8FA1-EEA70D3BC416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:N413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
